--- a/Multivariate_table_weights.xlsx
+++ b/Multivariate_table_weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/tsupa_dtu_dk/Documents/Thomas School/OMMWS/Assignment/water_resources_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{788794C7-D931-7D43-BB22-C9B4D2E7D505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BAFD5A-E40B-984C-B04D-F5D7D162E386}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{788794C7-D931-7D43-BB22-C9B4D2E7D505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9E98DCC-7274-6B45-8138-9A420D10B6BB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27700" windowHeight="16500" xr2:uid="{9BDD00B8-DBEC-44A5-BD79-711E34949729}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Policy A</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Total performance</t>
+  </si>
+  <si>
+    <t>normalised</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -151,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,11 +180,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -192,15 +209,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AC4DA3-FCE1-4F24-A351-E19ED63A2DCE}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -532,7 +552,7 @@
     <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -552,7 +572,7 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -578,7 +598,7 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="7" cm="1">
+      <c r="H2" s="6" cm="1">
         <f t="array" ref="H2">SUM(B2:G2*B5:G5)</f>
         <v>25.711400000000001</v>
       </c>
@@ -608,7 +628,7 @@
         <f>-10</f>
         <v>-10</v>
       </c>
-      <c r="H3" s="7" cm="1">
+      <c r="H3" s="6" cm="1">
         <f t="array" ref="H3">SUM(B3:G3*B5:G5)</f>
         <v>16.127800000000001</v>
       </c>
@@ -638,34 +658,150 @@
         <f>-5</f>
         <v>-5</v>
       </c>
-      <c r="H4" s="7" cm="1">
+      <c r="H4" s="6" cm="1">
         <f t="array" ref="H4">SUM(B4:G4*B5:G5)</f>
         <v>26.623400000000004</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1E-3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0.1</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <f>(B2-AVERAGE(B$2:B$4))/(STDEV(B$2:B$4))</f>
+        <v>-0.65613553133690172</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:H6" si="0">(C2-AVERAGE(C$2:C$4))/(STDEV(C$2:C$4))</f>
+        <v>0.6537659729305666</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-0.12538039649079927</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.1547005383792517</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.1547005383792515</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>SUM(B6*$B$9+C6*$C$9+D6*$D$9+E6*$E$9+F6*$F$9+G6*$G$9)</f>
+        <v>5.5587410550565153E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f t="shared" ref="B7:H8" si="1">(B3-AVERAGE(B$2:B$4))/(STDEV(B$2:B$4))</f>
+        <v>-0.49480198306942275</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.49740005926513459</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.0567776275653047</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-0.57735026918962584</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-0.57735026918962573</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H8" si="2">SUM(B7*$B$9+C7*$C$9+D7*$D$9+E7*$E$9+F7*$F$9+G7*$G$9)</f>
+        <v>1.1525777433652928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>1.1509375144063243</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-1.1511660321956994</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-0.93139723107450556</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-0.57735026918962584</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.57735026918962573</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-1.2081651539158571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
